--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Tolliver.Spring.013020.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Tolliver.Spring.013020.xlsx_with_dialog_acts.xlsx
@@ -1353,12 +1353,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2527,12 +2527,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3035,12 +3035,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3543,12 +3543,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3589,12 +3589,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3799,12 +3799,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4009,12 +4009,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4471,12 +4471,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4685,12 +4685,12 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5147,12 +5147,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5991,12 +5991,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6625,12 +6625,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6877,12 +6877,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7045,12 +7045,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7087,12 +7087,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7213,12 +7213,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7675,12 +7675,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7759,12 +7759,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8263,12 +8263,12 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8305,12 +8305,12 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8729,12 +8729,12 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8771,12 +8771,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9065,12 +9065,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9577,12 +9577,12 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9619,12 +9619,12 @@
       <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10333,12 +10333,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10711,12 +10711,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10795,12 +10795,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11383,12 +11383,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11593,12 +11593,12 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11761,12 +11761,12 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11887,12 +11887,12 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11929,12 +11929,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12895,12 +12895,12 @@
       <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13063,12 +13063,12 @@
       <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13819,12 +13819,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13903,12 +13903,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14029,12 +14029,12 @@
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14197,12 +14197,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14281,12 +14281,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14453,12 +14453,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14705,12 +14705,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15419,12 +15419,12 @@
       </c>
       <c r="I356" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15671,12 +15671,12 @@
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15797,12 +15797,12 @@
       </c>
       <c r="I365" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15923,12 +15923,12 @@
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16007,12 +16007,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16091,12 +16091,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16679,12 +16679,12 @@
       <c r="H386" t="inlineStr"/>
       <c r="I386" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16725,12 +16725,12 @@
       </c>
       <c r="I387" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16935,12 +16935,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17145,12 +17145,12 @@
       <c r="H397" t="inlineStr"/>
       <c r="I397" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17397,12 +17397,12 @@
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17439,12 +17439,12 @@
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17691,12 +17691,12 @@
       <c r="H410" t="inlineStr"/>
       <c r="I410" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17733,12 +17733,12 @@
       <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17859,12 +17859,12 @@
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17943,12 +17943,12 @@
       <c r="H416" t="inlineStr"/>
       <c r="I416" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -18363,12 +18363,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18959,12 +18959,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19295,12 +19295,12 @@
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19337,12 +19337,12 @@
       </c>
       <c r="I449" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19505,12 +19505,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19673,12 +19673,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20009,12 +20009,12 @@
       <c r="H465" t="inlineStr"/>
       <c r="I465" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20387,12 +20387,12 @@
       <c r="H474" t="inlineStr"/>
       <c r="I474" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
